--- a/tabellen/concept/5.1/hoofdgroepen-concept-5.1.xlsx
+++ b/tabellen/concept/5.1/hoofdgroepen-concept-5.1.xlsx
@@ -5,16 +5,19 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\100289\OneDrive\GitHub\NLCS\tabellen\ontwikkeling\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\100289\OneDrive\GitHub\NLCS\tabellen\concept\5.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{C22C922A-0FC7-4126-A006-E7AD3201C0C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E789666B-6047-4118-BF8C-1E0E23631BE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{B0306370-BD53-45BD-BAC2-41D5F1F32CEC}"/>
+    <workbookView xWindow="-38520" yWindow="-1620" windowWidth="38640" windowHeight="21240" xr2:uid="{B0306370-BD53-45BD-BAC2-41D5F1F32CEC}"/>
   </bookViews>
   <sheets>
     <sheet name="hoofdgroepen-concept-5.1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'hoofdgroepen-concept-5.1'!$A$1:$D$36</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -1210,7 +1213,7 @@
   <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C2" sqref="C2:C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1234,363 +1237,363 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>40</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>73</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>74</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="B4">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="B5">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>92</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="B7">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>94</v>
       </c>
       <c r="B8">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>95</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="B9">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>97</v>
       </c>
       <c r="B10">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>98</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>100</v>
       </c>
       <c r="B11">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>101</v>
       </c>
       <c r="D11" t="s">
-        <v>33</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>103</v>
       </c>
       <c r="B12">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>104</v>
       </c>
       <c r="D12" t="s">
-        <v>36</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="B13">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="D13" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="D14" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>43</v>
+        <v>106</v>
       </c>
       <c r="B15">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>44</v>
+        <v>107</v>
       </c>
       <c r="D15" t="s">
-        <v>45</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="B16">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="C16" t="s">
-        <v>47</v>
+        <v>86</v>
       </c>
       <c r="D16" t="s">
-        <v>48</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="B17">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C17" t="s">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="D17" t="s">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="B18">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C18" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="D18" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="B19">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C19" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="D19" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="B20">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="C20" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="D20" t="s">
-        <v>60</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="B21">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="C21" t="s">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="D21" t="s">
-        <v>63</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="B22">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="C22" t="s">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="D22" t="s">
-        <v>66</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B23">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D23" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>70</v>
+        <v>19</v>
       </c>
       <c r="B24">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="C24" t="s">
-        <v>71</v>
+        <v>20</v>
       </c>
       <c r="D24" t="s">
-        <v>72</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B25">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="C25" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D25" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>76</v>
+        <v>22</v>
       </c>
       <c r="B26">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="C26" t="s">
-        <v>77</v>
+        <v>23</v>
       </c>
       <c r="D26" t="s">
-        <v>78</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>79</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="C27" t="s">
-        <v>80</v>
+        <v>26</v>
       </c>
       <c r="D27" t="s">
-        <v>81</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
@@ -1609,16 +1612,16 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>85</v>
+        <v>28</v>
       </c>
       <c r="B29">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="C29" t="s">
-        <v>86</v>
+        <v>29</v>
       </c>
       <c r="D29" t="s">
-        <v>87</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
@@ -1637,89 +1640,94 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="B31">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="C31" t="s">
-        <v>92</v>
+        <v>65</v>
       </c>
       <c r="D31" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>94</v>
+        <v>31</v>
       </c>
       <c r="B32">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C32" t="s">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="D32" t="s">
-        <v>96</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>97</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C33" t="s">
-        <v>98</v>
+        <v>35</v>
       </c>
       <c r="D33" t="s">
-        <v>99</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C34" t="s">
-        <v>101</v>
+        <v>38</v>
       </c>
       <c r="D34" t="s">
-        <v>102</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>103</v>
+        <v>43</v>
       </c>
       <c r="B35">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C35" t="s">
-        <v>104</v>
+        <v>44</v>
       </c>
       <c r="D35" t="s">
-        <v>105</v>
+        <v>45</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>106</v>
+        <v>7</v>
       </c>
       <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" t="s">
         <v>9</v>
       </c>
-      <c r="C36" t="s">
-        <v>107</v>
-      </c>
-      <c r="D36" t="s">
-        <v>108</v>
-      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D36" xr:uid="{0B59E7D4-676B-4310-93A6-8AC3535CDB25}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D36">
+      <sortCondition ref="D1:D36"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>